--- a/feature_desc.xlsx
+++ b/feature_desc.xlsx
@@ -1,34 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YOITE\Desktop\project\house price\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34037205-9D68-49B2-B876-7C202654F856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7785" yWindow="-19650" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$133</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="208">
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>示例</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>是否数值</t>
+  </si>
+  <si>
+    <t>下一步处理</t>
+  </si>
+  <si>
+    <t>符合标准？</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
@@ -36,40 +43,82 @@
     <t>MSSubClass</t>
   </si>
   <si>
+    <t>某种分类</t>
+  </si>
+  <si>
+    <t>28个onehot</t>
+  </si>
+  <si>
     <t>MSZoning</t>
+  </si>
+  <si>
+    <t>RL</t>
   </si>
   <si>
     <t>LotFrontage</t>
   </si>
   <si>
+    <t>距离街道直线距离</t>
+  </si>
+  <si>
     <t>LotArea</t>
+  </si>
+  <si>
+    <t>面积</t>
   </si>
   <si>
     <t>Street</t>
   </si>
   <si>
+    <t>Pave</t>
+  </si>
+  <si>
     <t>Alley</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>LotShape</t>
   </si>
   <si>
+    <t>Reg</t>
+  </si>
+  <si>
     <t>LandContour</t>
+  </si>
+  <si>
+    <t>Lvl</t>
   </si>
   <si>
     <t>Utilities</t>
   </si>
   <si>
+    <t>AllPub</t>
+  </si>
+  <si>
     <t>LotConfig</t>
+  </si>
+  <si>
+    <t>Inside</t>
   </si>
   <si>
     <t>LandSlope</t>
   </si>
   <si>
+    <t>Gtl</t>
+  </si>
+  <si>
     <t>Neighborhood</t>
   </si>
   <si>
+    <t>CollgCr</t>
+  </si>
+  <si>
     <t>Condition1</t>
+  </si>
+  <si>
+    <t>Norm</t>
   </si>
   <si>
     <t>Condition2</t>
@@ -78,13 +127,25 @@
     <t>BldgType</t>
   </si>
   <si>
+    <t>1Fam</t>
+  </si>
+  <si>
     <t>HouseStyle</t>
+  </si>
+  <si>
+    <t>2Story</t>
   </si>
   <si>
     <t>OverallQual</t>
   </si>
   <si>
+    <t>有序的房屋品质</t>
+  </si>
+  <si>
     <t>OverallCond</t>
+  </si>
+  <si>
+    <t>有序的房屋情况</t>
   </si>
   <si>
     <t>YearBuilt</t>
@@ -96,10 +157,19 @@
     <t>RoofStyle</t>
   </si>
   <si>
+    <t>Gable</t>
+  </si>
+  <si>
     <t>RoofMatl</t>
   </si>
   <si>
+    <t>CompShg</t>
+  </si>
+  <si>
     <t>Exterior1st</t>
+  </si>
+  <si>
+    <t>VinylSd</t>
   </si>
   <si>
     <t>Exterior2nd</t>
@@ -108,16 +178,34 @@
     <t>MasVnrType</t>
   </si>
   <si>
+    <t>BrkFace</t>
+  </si>
+  <si>
     <t>MasVnrArea</t>
+  </si>
+  <si>
+    <t>砌砖面积</t>
   </si>
   <si>
     <t>ExterQual</t>
   </si>
   <si>
+    <t>Gd</t>
+  </si>
+  <si>
+    <t>需要处理：处理成数字</t>
+  </si>
+  <si>
     <t>ExterCond</t>
   </si>
   <si>
+    <t>TA</t>
+  </si>
+  <si>
     <t>Foundation</t>
+  </si>
+  <si>
+    <t>PConc</t>
   </si>
   <si>
     <t>BsmtQual</t>
@@ -129,13 +217,22 @@
     <t>BsmtExposure</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>BsmtFinType1</t>
+  </si>
+  <si>
+    <t>GLQ</t>
   </si>
   <si>
     <t>BsmtFinSF1</t>
   </si>
   <si>
     <t>BsmtFinType2</t>
+  </si>
+  <si>
+    <t>Unf</t>
   </si>
   <si>
     <t>BsmtFinSF2</t>
@@ -150,13 +247,25 @@
     <t>Heating</t>
   </si>
   <si>
+    <t>GasA</t>
+  </si>
+  <si>
     <t>HeatingQC</t>
+  </si>
+  <si>
+    <t>Ex</t>
   </si>
   <si>
     <t>CentralAir</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>Electrical</t>
+  </si>
+  <si>
+    <t>SBrkr</t>
   </si>
   <si>
     <t>1stFlrSF</t>
@@ -198,6 +307,9 @@
     <t>Functional</t>
   </si>
   <si>
+    <t>Typ</t>
+  </si>
+  <si>
     <t>Fireplaces</t>
   </si>
   <si>
@@ -207,10 +319,16 @@
     <t>GarageType</t>
   </si>
   <si>
+    <t>Attchd</t>
+  </si>
+  <si>
     <t>GarageYrBlt</t>
   </si>
   <si>
     <t>GarageFinish</t>
+  </si>
+  <si>
+    <t>RFn</t>
   </si>
   <si>
     <t>GarageCars</t>
@@ -226,6 +344,9 @@
   </si>
   <si>
     <t>PavedDrive</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>WoodDeckSF</t>
@@ -267,190 +388,626 @@
     <t>SaleType</t>
   </si>
   <si>
+    <t>WD</t>
+  </si>
+  <si>
     <t>SaleCondition</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
   <si>
     <t>SalePrice</t>
   </si>
   <si>
-    <t>RL</t>
+    <t>标准1</t>
   </si>
   <si>
-    <t>Pave</t>
+    <t xml:space="preserve">       Ex</t>
   </si>
   <si>
-    <t>NA</t>
+    <t>Excellent</t>
   </si>
   <si>
-    <t>Reg</t>
+    <t xml:space="preserve">       Gd</t>
   </si>
   <si>
-    <t>Lvl</t>
+    <t>Good</t>
   </si>
   <si>
-    <t>AllPub</t>
+    <t xml:space="preserve">       TA</t>
   </si>
   <si>
-    <t>Inside</t>
+    <t>Average/Typical</t>
   </si>
   <si>
-    <t>Gtl</t>
+    <t xml:space="preserve">       Fa</t>
   </si>
   <si>
-    <t>CollgCr</t>
+    <t>Fair</t>
   </si>
   <si>
-    <t>Norm</t>
+    <t xml:space="preserve">       Po</t>
   </si>
   <si>
-    <t>1Fam</t>
+    <t>Poor</t>
   </si>
   <si>
-    <t>2Story</t>
+    <t>标准2</t>
   </si>
   <si>
-    <t>Gable</t>
+    <t>Good Exposure</t>
   </si>
   <si>
-    <t>CompShg</t>
+    <t xml:space="preserve">       Av</t>
   </si>
   <si>
-    <t>VinylSd</t>
+    <t>Average Exposure (split levels or foyers typically score average or above)</t>
   </si>
   <si>
-    <t>BrkFace</t>
+    <t xml:space="preserve">       Mn</t>
   </si>
   <si>
-    <t>Gd</t>
+    <t>Mimimum Exposure</t>
   </si>
   <si>
-    <t>TA</t>
+    <t xml:space="preserve">       No</t>
   </si>
   <si>
-    <t>PConc</t>
+    <t>No Exposure</t>
   </si>
   <si>
-    <t>No</t>
+    <t xml:space="preserve">       NA</t>
   </si>
   <si>
-    <t>GLQ</t>
+    <t>No Basement</t>
   </si>
   <si>
-    <t>Unf</t>
+    <t>标准3</t>
   </si>
   <si>
-    <t>GasA</t>
+    <t xml:space="preserve">       GLQ</t>
   </si>
   <si>
-    <t>Ex</t>
+    <t>Good Living Quarters</t>
   </si>
   <si>
-    <t>Y</t>
+    <t xml:space="preserve">       ALQ</t>
   </si>
   <si>
-    <t>SBrkr</t>
+    <t>Average Living Quarters</t>
   </si>
   <si>
-    <t>Typ</t>
+    <t xml:space="preserve">       BLQ</t>
   </si>
   <si>
-    <t>Attchd</t>
+    <t>Below Average Living Quarters</t>
   </si>
   <si>
-    <t>RFn</t>
+    <t xml:space="preserve">       Rec</t>
   </si>
   <si>
-    <t>WD</t>
+    <t>Average Rec Room</t>
   </si>
   <si>
-    <t>Normal</t>
+    <t xml:space="preserve">       LwQ</t>
   </si>
   <si>
-    <t>字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Low Quality</t>
   </si>
   <si>
-    <t>示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">       Unf</t>
   </si>
   <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Unfinshed</t>
   </si>
   <si>
-    <t>是否数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>标准4</t>
   </si>
   <si>
-    <t>某种分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">       N</t>
   </si>
   <si>
-    <t>距离街道直线距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">       Y</t>
   </si>
   <si>
-    <t>面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Yes</t>
   </si>
   <si>
-    <t>有序的房屋品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>标准5</t>
   </si>
   <si>
-    <t>有序的房屋情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">       SBrkr</t>
   </si>
   <si>
-    <t>砌砖面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Standard Circuit Breakers &amp; Romex</t>
   </si>
   <si>
-    <t>需要处理：处理成数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">       FuseA</t>
   </si>
   <si>
-    <t>?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Fuse Box over 60 AMP and all Romex wiring (Average)</t>
   </si>
   <si>
-    <t>下一步处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve">       FuseF</t>
   </si>
   <si>
-    <t>28个onehot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>60 AMP Fuse Box and mostly Romex wiring (Fair)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       FuseP</t>
+  </si>
+  <si>
+    <t>60 AMP Fuse Box and mostly knob &amp; tube wiring (poor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Mix</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>标准6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Typ</t>
+  </si>
+  <si>
+    <t>Typical Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Min1</t>
+  </si>
+  <si>
+    <t>Minor Deductions 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Min2</t>
+  </si>
+  <si>
+    <t>Minor Deductions 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Mod</t>
+  </si>
+  <si>
+    <t>Moderate Deductions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Maj1</t>
+  </si>
+  <si>
+    <t>Major Deductions 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Maj2</t>
+  </si>
+  <si>
+    <t>Major Deductions 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Sev</t>
+  </si>
+  <si>
+    <t>Severely Damaged</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Sal</t>
+  </si>
+  <si>
+    <t>Salvage only</t>
+  </si>
+  <si>
+    <t>标准7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paved </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       P</t>
+  </si>
+  <si>
+    <t>Partial Pavement</t>
+  </si>
+  <si>
+    <t>Dirt/Gravel</t>
+  </si>
+  <si>
+    <t>标准8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       GdPrv</t>
+  </si>
+  <si>
+    <t>Good Privacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       MnPrv</t>
+  </si>
+  <si>
+    <t>Minimum Privacy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       GdWo</t>
+  </si>
+  <si>
+    <t>Good Wood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       MnWw</t>
+  </si>
+  <si>
+    <t>Minimum Wood/Wire</t>
+  </si>
+  <si>
+    <t>No Fence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -458,9 +1015,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -468,17 +1267,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -527,7 +1370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -562,7 +1405,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -736,49 +1579,47 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I16385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.4140625" customWidth="1"/>
+    <col min="1" max="1" width="19.8308823529412" customWidth="1"/>
+    <col min="3" max="3" width="16.4117647058824" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -786,181 +1627,181 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
-        <v>125</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" hidden="1" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" hidden="1" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>8450</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" hidden="1" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" hidden="1" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" hidden="1" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1">
         <v>2003</v>
@@ -969,9 +1810,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" hidden="1" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1">
         <v>2003</v>
@@ -980,137 +1821,155 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" hidden="1" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1">
         <v>196</v>
       </c>
       <c r="C28" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" hidden="1" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" hidden="1" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" hidden="1" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1">
         <v>706</v>
@@ -1119,20 +1978,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" hidden="1" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -1141,9 +2003,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" hidden="1" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B39" s="1">
         <v>150</v>
@@ -1152,9 +2014,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" hidden="1" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B40" s="1">
         <v>856</v>
@@ -1163,50 +2025,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" hidden="1" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" hidden="1" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B45" s="1">
         <v>856</v>
@@ -1215,9 +2086,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" hidden="1" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B46" s="1">
         <v>854</v>
@@ -1226,9 +2097,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" hidden="1" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -1237,9 +2108,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" hidden="1" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B48" s="1">
         <v>1710</v>
@@ -1248,9 +2119,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" hidden="1" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -1259,9 +2130,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" hidden="1" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
@@ -1270,9 +2141,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" hidden="1" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
@@ -1281,9 +2152,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" hidden="1" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="B52" s="1">
         <v>1</v>
@@ -1292,9 +2163,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" hidden="1" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1">
         <v>3</v>
@@ -1303,9 +2174,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" hidden="1" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B54" s="1">
         <v>1</v>
@@ -1314,20 +2185,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" hidden="1" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" hidden="1" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B56" s="1">
         <v>8</v>
@@ -1336,20 +2210,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" hidden="1" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E57" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" hidden="1" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -1358,28 +2235,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" hidden="1" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B60" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" hidden="1" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="B61" s="1">
         <v>2003</v>
@@ -1388,17 +2268,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" hidden="1" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B63" s="1">
         <v>2</v>
@@ -1407,9 +2287,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" hidden="1" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B64" s="1">
         <v>548</v>
@@ -1418,45 +2298,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" hidden="1" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E65" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" hidden="1" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="E66" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" hidden="1" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="E67" t="s">
-        <v>122</v>
+        <v>58</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
       </c>
       <c r="H67" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" hidden="1" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -1465,9 +2354,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" hidden="1" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B69" s="1">
         <v>61</v>
@@ -1476,9 +2365,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" hidden="1" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -1487,9 +2376,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" hidden="1" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -1498,9 +2387,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" hidden="1" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -1509,9 +2398,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" hidden="1" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -1520,39 +2409,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" hidden="1" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" hidden="1" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="F75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" hidden="1" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -1561,9 +2456,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" hidden="1" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -1572,9 +2467,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" hidden="1" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="B79" s="1">
         <v>2008</v>
@@ -1583,25 +2478,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="B82" s="1">
         <v>208500</v>
@@ -1615,201 +2510,501 @@
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1"/>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B85" s="1"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1"/>
+      <c r="C85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B86" s="1"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="1"/>
+      <c r="C86" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="B87" s="1"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="1"/>
+      <c r="C87" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B88" s="1"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="1"/>
+      <c r="C88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="1"/>
+      <c r="C89" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="B90" s="1"/>
+      <c r="C90" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="1"/>
+      <c r="A91" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="1"/>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B92" s="1"/>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="1"/>
+      <c r="C92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B93" s="1"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="1"/>
+      <c r="C93" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B94" s="1"/>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="1"/>
+      <c r="C94" t="s">
+        <v>140</v>
+      </c>
+      <c r="D94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="B95" s="1"/>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1"/>
+      <c r="C95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="1"/>
+      <c r="C96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="1"/>
+      <c r="C97" t="s">
+        <v>146</v>
+      </c>
+      <c r="D97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="1"/>
+      <c r="C98" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="1"/>
+      <c r="C99" t="s">
+        <v>149</v>
+      </c>
+      <c r="D99" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="1"/>
+      <c r="C100" t="s">
+        <v>151</v>
+      </c>
+      <c r="D100" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="1"/>
+      <c r="C101" t="s">
+        <v>153</v>
+      </c>
+      <c r="D101" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102" t="s">
+        <v>155</v>
+      </c>
+      <c r="D102" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104" t="s">
+        <v>159</v>
+      </c>
+      <c r="D104" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105" t="s">
+        <v>146</v>
+      </c>
+      <c r="D105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107" t="s">
+        <v>162</v>
+      </c>
+      <c r="D107" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108" t="s">
+        <v>163</v>
+      </c>
+      <c r="D108" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111" t="s">
+        <v>168</v>
+      </c>
+      <c r="D111" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112" t="s">
+        <v>170</v>
+      </c>
+      <c r="D112" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113" t="s">
+        <v>172</v>
+      </c>
+      <c r="D113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114" t="s">
+        <v>174</v>
+      </c>
+      <c r="D114" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116" t="s">
+        <v>177</v>
+      </c>
+      <c r="D116" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117" t="s">
+        <v>179</v>
+      </c>
+      <c r="D117" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118" t="s">
+        <v>181</v>
+      </c>
+      <c r="D118" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119" t="s">
+        <v>183</v>
+      </c>
+      <c r="D119" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120" t="s">
+        <v>185</v>
+      </c>
+      <c r="D120" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121" t="s">
+        <v>187</v>
+      </c>
+      <c r="D121" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122" t="s">
+        <v>189</v>
+      </c>
+      <c r="D122" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123" t="s">
+        <v>191</v>
+      </c>
+      <c r="D123" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125" t="s">
+        <v>163</v>
+      </c>
+      <c r="D125" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126" t="s">
+        <v>195</v>
+      </c>
+      <c r="D126" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129" t="s">
+        <v>199</v>
+      </c>
+      <c r="D129" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130" t="s">
+        <v>201</v>
+      </c>
+      <c r="D130" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131" t="s">
+        <v>203</v>
+      </c>
+      <c r="D131" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132" t="s">
+        <v>205</v>
+      </c>
+      <c r="D132" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
+      <c r="C133" t="s">
+        <v>146</v>
+      </c>
+      <c r="D133" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1"/>
@@ -66820,8 +68015,56 @@
       <c r="B16385" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E82" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A1:E133">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="Poor"/>
+        <filter val="Partial Pavement"/>
+        <filter val="Good Exposure"/>
+        <filter val="No Fence"/>
+        <filter val="Minimum Wood/Wire"/>
+        <filter val="No Exposure"/>
+        <filter val="Low Quality"/>
+        <filter val="Salvage only"/>
+        <filter val="Moderate Deductions"/>
+        <filter val="Average Living Quarters"/>
+        <filter val="Below Average Living Quarters"/>
+        <filter val="Mixed"/>
+        <filter val="Paved"/>
+        <filter val="No Basement"/>
+        <filter val="Mimimum Exposure"/>
+        <filter val="Good Privacy"/>
+        <filter val="Typical Functionality"/>
+        <filter val="Fair"/>
+        <filter val="Yes"/>
+        <filter val="Standard Circuit Breakers &amp; Romex"/>
+        <filter val="60 AMP Fuse Box and mostly knob &amp; tube wiring (poor)"/>
+        <filter val="Dirt/Gravel"/>
+        <filter val="No"/>
+        <filter val="Minor Deductions 1"/>
+        <filter val="Major Deductions 1"/>
+        <filter val="Minor Deductions 2"/>
+        <filter val="Major Deductions 2"/>
+        <filter val="Good Living Quarters"/>
+        <filter val="Good"/>
+        <filter val="Severely Damaged"/>
+        <filter val="Good Wood"/>
+        <filter val="Excellent"/>
+        <filter val="Unfinshed"/>
+        <filter val="60 AMP Fuse Box and mostly Romex wiring (Fair)"/>
+        <filter val="Fuse Box over 60 AMP and all Romex wiring (Average)"/>
+        <filter val="Minimum Privacy"/>
+        <filter val="Average Exposure (split levels or foyers typically score average or above)"/>
+        <filter val="Average/Typical"/>
+        <filter val="Average Rec Room"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/feature_desc.xlsx
+++ b/feature_desc.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="208">
   <si>
     <t>字段</t>
   </si>
@@ -650,10 +650,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,28 +677,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,14 +691,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -728,39 +699,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,22 +722,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -807,7 +739,68 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,7 +821,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,169 +995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,21 +1014,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,16 +1037,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1085,16 +1078,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,142 +1109,142 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1587,8 +1580,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I16385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3059,107 +3052,159 @@
       <c r="B146" s="1"/>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="1"/>
+      <c r="A147" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B147" s="1"/>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="1"/>
+      <c r="A148" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B148" s="1"/>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="1"/>
+      <c r="A149" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B149" s="1"/>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="1"/>
+      <c r="A150" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B150" s="1"/>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="1"/>
+      <c r="A151" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B151" s="1"/>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="1"/>
+      <c r="A152" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B152" s="1"/>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="1"/>
+      <c r="A153" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B153" s="1"/>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="1"/>
+      <c r="A154" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B154" s="1"/>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="1"/>
+      <c r="A155" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B155" s="1"/>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B156" s="1"/>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="1"/>
+      <c r="A157" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="B157" s="1"/>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="1"/>
+      <c r="A158" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B158" s="1"/>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="1"/>
+      <c r="A159" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B159" s="1"/>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="1"/>
+      <c r="A160" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B160" s="1"/>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B161" s="1"/>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="1"/>
+      <c r="A162" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B162" s="1"/>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="1"/>
+      <c r="A163" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B163" s="1"/>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B164" s="1"/>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="1"/>
+      <c r="A165" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B165" s="1"/>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="1"/>
+      <c r="A166" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="B166" s="1"/>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="1"/>
+      <c r="A167" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B167" s="1"/>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="B168" s="1"/>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="1"/>
+      <c r="A169" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B169" s="1"/>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B170" s="1"/>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="1"/>
+      <c r="A171" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="B171" s="1"/>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="B172" s="1"/>
     </row>
     <row r="173" spans="1:2">
